--- a/game_excel/pay.xlsx
+++ b/game_excel/pay.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
